--- a/email_log.xlsx
+++ b/email_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,24 @@
           <t>成功</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>darumamasamune@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-02 22:29:27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/email_log.xlsx
+++ b/email_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,58 @@
           <t>成功</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>darumamasamune@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-04 15:25:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>darumamasamune@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-04 19:09:15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>darumamasamune@gmail.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-04 19:10:10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
